--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -328,6 +328,9 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -342,11 +345,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1456239232"/>
-        <c:axId val="1579869808"/>
+        <c:axId val="-624552208"/>
+        <c:axId val="-624543504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1456239232"/>
+        <c:axId val="-624552208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579869808"/>
+        <c:crossAx val="-624543504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579869808"/>
+        <c:axId val="-624543504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1456239232"/>
+        <c:crossAx val="-624552208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -597,12 +600,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -617,11 +614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1579864368"/>
-        <c:axId val="1579863824"/>
+        <c:axId val="-624541328"/>
+        <c:axId val="-517281056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1579864368"/>
+        <c:axId val="-624541328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579863824"/>
+        <c:crossAx val="-517281056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579863824"/>
+        <c:axId val="-517281056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579864368"/>
+        <c:crossAx val="-624541328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,10 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>45250</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,18 +2526,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>45251</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45255</v>
       </c>
+      <c r="B4" s="5">
+        <v>5.5</v>
+      </c>
       <c r="C4" s="4">
-        <v>45252</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,33 +2545,11 @@
         <v>45256</v>
       </c>
       <c r="C5" s="4">
-        <v>45253</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
-        <v>45254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
-        <v>45258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
-        <v>45259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
-        <v>45260</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="daily study status" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="nov " sheetId="7" r:id="rId2"/>
+    <sheet name="dec" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>sat</t>
   </si>
@@ -153,6 +155,9 @@
   <si>
     <t>hours studied in weekdays</t>
   </si>
+  <si>
+    <t>went to movie,aswin house</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +259,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -295,7 +299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'nov '!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -318,7 +322,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>'nov '!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -330,6 +334,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,11 +355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-624552208"/>
-        <c:axId val="-624543504"/>
+        <c:axId val="1138602736"/>
+        <c:axId val="1138593488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-624552208"/>
+        <c:axId val="1138602736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624543504"/>
+        <c:crossAx val="1138593488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -400,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-624543504"/>
+        <c:axId val="1138593488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624552208"/>
+        <c:crossAx val="1138602736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -573,7 +583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'nov '!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -596,10 +606,19 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>'nov '!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -614,11 +633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-624541328"/>
-        <c:axId val="-517281056"/>
+        <c:axId val="1138592944"/>
+        <c:axId val="1138600016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-624541328"/>
+        <c:axId val="1138592944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-517281056"/>
+        <c:crossAx val="1138600016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-517281056"/>
+        <c:axId val="1138600016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +738,542 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624541328"/>
+        <c:crossAx val="1138592944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dec!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied in weekend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dec!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1138602192"/>
+        <c:axId val="1138600560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1138602192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138600560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1138600560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138602192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3030485564304462"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7886482939632535E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dec!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied in weekdays</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dec!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1138604368"/>
+        <c:axId val="1017425440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1138604368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1017425440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1017425440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138604368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -848,6 +1402,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1365,6 +1999,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1891,6 +3557,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1914,13 +3649,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
@@ -2482,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,6 +4252,9 @@
       <c r="C2" s="4">
         <v>45257</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -2528,6 +4266,9 @@
       <c r="C3" s="4">
         <v>45258</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -2539,16 +4280,25 @@
       <c r="C4" s="4">
         <v>45259</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45256</v>
       </c>
-      <c r="C5" s="4">
-        <v>45260</v>
+      <c r="B5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45260</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
   </sheetData>
@@ -2556,4 +4306,96 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45261</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45263</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -355,11 +355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1138602736"/>
-        <c:axId val="1138593488"/>
+        <c:axId val="463951920"/>
+        <c:axId val="463942672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1138602736"/>
+        <c:axId val="463951920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138593488"/>
+        <c:crossAx val="463942672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1138593488"/>
+        <c:axId val="463942672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138602736"/>
+        <c:crossAx val="463951920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,11 +633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1138592944"/>
-        <c:axId val="1138600016"/>
+        <c:axId val="463944304"/>
+        <c:axId val="463952464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1138592944"/>
+        <c:axId val="463944304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138600016"/>
+        <c:crossAx val="463952464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1138600016"/>
+        <c:axId val="463952464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138592944"/>
+        <c:crossAx val="463944304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -834,7 +834,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0532022104831832E-2"/>
+          <c:y val="0.17214723926380368"/>
+          <c:w val="0.9144609455463637"/>
+          <c:h val="0.75342221792828046"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -876,6 +886,12 @@
                 <c:pt idx="1">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -890,11 +906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1138602192"/>
-        <c:axId val="1138600560"/>
+        <c:axId val="463954640"/>
+        <c:axId val="463955184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1138602192"/>
+        <c:axId val="463954640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138600560"/>
+        <c:crossAx val="463955184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1138600560"/>
+        <c:axId val="463955184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138602192"/>
+        <c:crossAx val="463954640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,10 +1165,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,11 +1181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1138604368"/>
-        <c:axId val="1017425440"/>
+        <c:axId val="342372448"/>
+        <c:axId val="503222976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1138604368"/>
+        <c:axId val="342372448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1017425440"/>
+        <c:crossAx val="503222976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,7 +1235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1017425440"/>
+        <c:axId val="503222976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1138604368"/>
+        <c:crossAx val="342372448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3619,16 +3632,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4313,7 +4326,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,20 +4375,29 @@
       <c r="B3" s="5">
         <v>3.5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>45271</v>
+      </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>45270</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>

--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>sat</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>went to movie,aswin house</t>
+  </si>
+  <si>
+    <t>reson for not studying</t>
+  </si>
+  <si>
+    <t>decided hospital</t>
+  </si>
+  <si>
+    <t>entertainment-exhibition</t>
+  </si>
+  <si>
+    <t>mandatory courses</t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t>ofc work</t>
   </si>
 </sst>
 </file>
@@ -355,11 +373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="463951920"/>
-        <c:axId val="463942672"/>
+        <c:axId val="1624348048"/>
+        <c:axId val="1624348592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463951920"/>
+        <c:axId val="1624348048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463942672"/>
+        <c:crossAx val="1624348592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463942672"/>
+        <c:axId val="1624348592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463951920"/>
+        <c:crossAx val="1624348048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,11 +651,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="463944304"/>
-        <c:axId val="463952464"/>
+        <c:axId val="1624340976"/>
+        <c:axId val="1499873664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463944304"/>
+        <c:axId val="1624340976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463952464"/>
+        <c:crossAx val="1499873664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463952464"/>
+        <c:axId val="1499873664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463944304"/>
+        <c:crossAx val="1624340976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -816,11 +834,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -863,23 +880,86 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>dec!$B$2:$B$10</c:f>
+              <c:f>dec!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -892,90 +972,54 @@
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="463954640"/>
-        <c:axId val="463955184"/>
+        <c:axId val="1662424480"/>
+        <c:axId val="1662421760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463954640"/>
+        <c:axId val="1662424480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="463955184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="463955184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -999,9 +1043,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1012,7 +1055,76 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463954640"/>
+        <c:crossAx val="1662421760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1662421760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662424480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,11 +1142,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1097,11 +1212,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1144,7 +1259,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1153,8 +1268,73 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>dec!$E$2:$E$10</c:f>
@@ -1167,25 +1347,45 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342372448"/>
-        <c:axId val="503222976"/>
+        <c:axId val="1662420672"/>
+        <c:axId val="1662422848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342372448"/>
+        <c:axId val="1662420672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,11 +1396,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1212,11 +1412,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1227,7 +1427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503222976"/>
+        <c:crossAx val="1662422848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,21 +1435,33 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503222976"/>
+        <c:axId val="1662422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1259,34 +1471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="342372448"/>
+        <c:crossAx val="1662420672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,14 +1488,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2528,33 +2729,46 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2563,38 +2777,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2604,23 +2794,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2628,84 +2813,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2721,21 +2953,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2745,22 +2974,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2769,14 +2998,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2788,14 +3016,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2807,30 +3034,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2840,16 +3072,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2859,14 +3104,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2878,14 +3122,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2897,27 +3140,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2925,9 +3167,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2937,14 +3178,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2956,12 +3196,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2970,14 +3209,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2986,9 +3226,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3002,15 +3241,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3019,9 +3260,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3031,159 +3271,181 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3192,36 +3454,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3237,21 +3492,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3266,13 +3519,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3285,17 +3538,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3304,12 +3557,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3323,30 +3576,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3356,17 +3615,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3375,12 +3645,88 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -3388,64 +3734,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3453,14 +3741,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3472,12 +3760,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3486,14 +3774,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3502,9 +3789,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3522,9 +3809,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3535,11 +3822,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3547,14 +3839,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3632,16 +3918,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3662,16 +3948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4323,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,9 +4620,10 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="3" width="14.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4350,8 +4637,11 @@
       <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45262</v>
       </c>
@@ -4368,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45263</v>
       </c>
@@ -4382,26 +4672,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45269</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>45276</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45270</v>
       </c>
       <c r="B5" s="5">
         <v>6</v>
       </c>
+      <c r="D5" s="4">
+        <v>45277</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45282</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45278</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45283</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45279</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45284</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45280</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45285</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45281</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45291</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="daily study status" sheetId="2" r:id="rId1"/>
     <sheet name="nov " sheetId="7" r:id="rId2"/>
     <sheet name="dec" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="jan 2024" sheetId="6" r:id="rId4"/>
+    <sheet name="feb-1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>sat</t>
   </si>
@@ -176,12 +177,60 @@
   <si>
     <t>ofc work</t>
   </si>
+  <si>
+    <t>hours studied</t>
+  </si>
+  <si>
+    <t>went to guntur movie</t>
+  </si>
+  <si>
+    <t>targeted hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laptop return </t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>tcs interviews</t>
+  </si>
+  <si>
+    <t>just wasted</t>
+  </si>
+  <si>
+    <t>sollu with friends</t>
+  </si>
+  <si>
+    <t>bit tcs work</t>
+  </si>
+  <si>
+    <t>hospital reading about fibroids</t>
+  </si>
+  <si>
+    <t>cleaning mobile,lalitha jewllery</t>
+  </si>
+  <si>
+    <t>sai &amp; chandu marriage went to kavali</t>
+  </si>
+  <si>
+    <t>4 udemy courses - feb 19- March 30</t>
+  </si>
+  <si>
+    <t>daily 3 hours of spring security-
+nuts and bolts -4 hours
+sergey-12 hrs, madan reddy - 15 hrs, bharath tippireddy -6 hours 
+total 37*3 = 111 hours, 35-40 days -daily 2 hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +254,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +296,18 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,12 +315,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,12 +364,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -373,11 +694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1624348048"/>
-        <c:axId val="1624348592"/>
+        <c:axId val="329989136"/>
+        <c:axId val="329988048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1624348048"/>
+        <c:axId val="329989136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624348592"/>
+        <c:crossAx val="329988048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -428,7 +749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1624348592"/>
+        <c:axId val="329988048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624348048"/>
+        <c:crossAx val="329989136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -651,11 +972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1624340976"/>
-        <c:axId val="1499873664"/>
+        <c:axId val="329992944"/>
+        <c:axId val="329987504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1624340976"/>
+        <c:axId val="329992944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +1018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499873664"/>
+        <c:crossAx val="329987504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499873664"/>
+        <c:axId val="329987504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +1077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624340976"/>
+        <c:crossAx val="329992944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,7 +1141,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -936,7 +1256,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -990,11 +1309,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1662424480"/>
-        <c:axId val="1662421760"/>
+        <c:axId val="329986416"/>
+        <c:axId val="171462864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1662424480"/>
+        <c:axId val="329986416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1662421760"/>
+        <c:crossAx val="171462864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1662421760"/>
+        <c:axId val="171462864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1662424480"/>
+        <c:crossAx val="329986416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1317,7 +1636,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1381,11 +1699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1662420672"/>
-        <c:axId val="1662422848"/>
+        <c:axId val="331226880"/>
+        <c:axId val="331223616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1662420672"/>
+        <c:axId val="331226880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1662422848"/>
+        <c:crossAx val="331223616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1435,7 +1753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1662422848"/>
+        <c:axId val="331223616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1789,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1662420672"/>
+        <c:crossAx val="331226880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,6 +1830,794 @@
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
           <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jan 2024'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'jan 2024'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'jan 2024'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="331221984"/>
+        <c:axId val="331231232"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="331221984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331231232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="331231232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331221984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'feb-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'feb-1'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36934</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36935</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36938</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36939</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36940</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36942</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36944</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36946</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36947</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36948</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36949</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'feb-1'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="331225248"/>
+        <c:axId val="331229600"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="331225248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331229600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="331229600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331225248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1696,6 +2802,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3841,6 +5027,1012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3979,6 +6171,78 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4611,8 +6875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,12 +7065,526 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45309</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45310</v>
+      </c>
+      <c r="B3">
+        <v>3.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45311</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45312</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45315</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45316</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45317</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45318</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45320</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" priority="7" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B16:B1048576">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>36923</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>36924</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>36925</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>36926</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>36927</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>36928</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>36929</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>36930</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>36931</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>36932</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>36933</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>36934</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>36935</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>36936</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>36937</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>36938</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>36939</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>36940</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>36941</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>36942</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>36943</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>36944</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>36945</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>36946</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>36947</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>36948</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>36949</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>36950</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="daily study status" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="dec" sheetId="5" r:id="rId3"/>
     <sheet name="jan 2024" sheetId="6" r:id="rId4"/>
     <sheet name="feb-1" sheetId="9" r:id="rId5"/>
+    <sheet name="march" sheetId="10" r:id="rId6"/>
+    <sheet name="apr" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>sat</t>
   </si>
@@ -217,13 +219,138 @@
     <t>sai &amp; chandu marriage went to kavali</t>
   </si>
   <si>
-    <t>4 udemy courses - feb 19- March 30</t>
+    <t>today afternoon only I came</t>
+  </si>
+  <si>
+    <t>4 udemy courses - feb 23- April -5</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>health focus</t>
+  </si>
+  <si>
+    <t>tcs work ,plants,house work</t>
+  </si>
+  <si>
+    <t>khashayam 2hrs ,sunlight 2 hrs</t>
+  </si>
+  <si>
+    <t>tcs wings 2 hate mail composition</t>
+  </si>
+  <si>
+    <t>kavya house, likki house, movie</t>
+  </si>
+  <si>
+    <t>bought oil, calculations</t>
   </si>
   <si>
     <t>daily 3 hours of spring security-
 nuts and bolts -4 hours
 sergey-12 hrs, madan reddy - 15 hrs, bharath tippireddy -6 hours 
-total 37*3 = 111 hours, 35-40 days -daily 2 hours</t>
+total 37*3 = 111 hours, 35-40 days -daily 3 hours</t>
+  </si>
+  <si>
+    <t>end of nuts bolts</t>
+  </si>
+  <si>
+    <t>end of 7 hours or 50% course, 
+section 8 must be completed</t>
+  </si>
+  <si>
+    <t>seeing realestate videos</t>
+  </si>
+  <si>
+    <t>10-5 tcs work</t>
+  </si>
+  <si>
+    <t>medibuddy,downloaded some books</t>
+  </si>
+  <si>
+    <t>1.5 hr tcs work, slept 30 mins</t>
+  </si>
+  <si>
+    <t>house activities,helmet in rtc mgbs,fnds chatting</t>
+  </si>
+  <si>
+    <t>mrng,aft-snacks prep
+time pass, lic, chat with wife</t>
+  </si>
+  <si>
+    <t>1.5 call with anj,1.5 hr dinner</t>
+  </si>
+  <si>
+    <t>call  with lalitha, hosp, health videos on herbal dish wash</t>
+  </si>
+  <si>
+    <t>cleaning -1, house work-3</t>
+  </si>
+  <si>
+    <t>call with athayya moodout and spoke abt chirala stay</t>
+  </si>
+  <si>
+    <t>hosp scan,decision to go to usa</t>
+  </si>
+  <si>
+    <t>1.5 junk videos,1.5 us thoughts</t>
+  </si>
+  <si>
+    <t>news paper</t>
+  </si>
+  <si>
+    <t>studied junit</t>
+  </si>
+  <si>
+    <t>junit</t>
+  </si>
+  <si>
+    <t>movies,kitchen work(dish wash liq)</t>
+  </si>
+  <si>
+    <t>health(vit-d analysis)</t>
+  </si>
+  <si>
+    <t>sleep, calls</t>
+  </si>
+  <si>
+    <t>missed to note</t>
+  </si>
+  <si>
+    <t>addicted to movies</t>
+  </si>
+  <si>
+    <t>movies- aranya, groceries in Dmart</t>
+  </si>
+  <si>
+    <t>movies- YS viveka movie, Dj tillu, calc</t>
+  </si>
+  <si>
+    <t>may be</t>
+  </si>
+  <si>
+    <t>aeroplance youtube videos, friends calls, lic analysis call with mohan</t>
+  </si>
+  <si>
+    <t>youtube videos, swarup,house calls,sleep, health problem</t>
+  </si>
+  <si>
+    <t>1.5 tcs,4hrs lic analysis</t>
+  </si>
+  <si>
+    <t>complete movies- amazon prime</t>
+  </si>
+  <si>
+    <t>family star movie</t>
+  </si>
+  <si>
+    <t>relatives chaitu came enjoyed</t>
+  </si>
+  <si>
+    <t>3 hrs calls,1.5 hrs break, 1 hr tcs work</t>
+  </si>
+  <si>
+    <t>2.5 twitter pollution analysis, 1-news,shopping,1- tcs work</t>
   </si>
 </sst>
 </file>
@@ -375,7 +502,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -424,6 +551,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -463,6 +597,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -694,11 +835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329989136"/>
-        <c:axId val="329988048"/>
+        <c:axId val="2043199472"/>
+        <c:axId val="2043191856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329989136"/>
+        <c:axId val="2043199472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329988048"/>
+        <c:crossAx val="2043191856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329988048"/>
+        <c:axId val="2043191856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329989136"/>
+        <c:crossAx val="2043199472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -972,11 +1113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329992944"/>
-        <c:axId val="329987504"/>
+        <c:axId val="2043204912"/>
+        <c:axId val="2043193488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329992944"/>
+        <c:axId val="2043204912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329987504"/>
+        <c:crossAx val="2043193488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1026,7 +1167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329987504"/>
+        <c:axId val="2043193488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329992944"/>
+        <c:crossAx val="2043204912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,11 +1450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329986416"/>
-        <c:axId val="171462864"/>
+        <c:axId val="2043205456"/>
+        <c:axId val="2043202736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329986416"/>
+        <c:axId val="2043205456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171462864"/>
+        <c:crossAx val="2043202736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171462864"/>
+        <c:axId val="2043202736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329986416"/>
+        <c:crossAx val="2043205456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,11 +1840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331226880"/>
-        <c:axId val="331223616"/>
+        <c:axId val="2043203824"/>
+        <c:axId val="2043204368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331226880"/>
+        <c:axId val="2043203824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331223616"/>
+        <c:crossAx val="2043204368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1753,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331223616"/>
+        <c:axId val="2043204368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331226880"/>
+        <c:crossAx val="2043203824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2047,11 +2188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331221984"/>
-        <c:axId val="331231232"/>
+        <c:axId val="2043195120"/>
+        <c:axId val="2043206544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331221984"/>
+        <c:axId val="2043195120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,14 +2235,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331231232"/>
+        <c:crossAx val="2043206544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331231232"/>
+        <c:axId val="2043206544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331221984"/>
+        <c:crossAx val="2043195120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2216,7 +2357,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2462,16 +2602,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,11 +2628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331225248"/>
-        <c:axId val="331229600"/>
+        <c:axId val="2043195664"/>
+        <c:axId val="2043196208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331225248"/>
+        <c:axId val="2043195664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,14 +2675,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331229600"/>
+        <c:crossAx val="2043196208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331229600"/>
+        <c:axId val="2043196208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,7 +2733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331225248"/>
+        <c:crossAx val="2043195664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2618,6 +2758,897 @@
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>march!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>march!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45374</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>march!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2041654000"/>
+        <c:axId val="2041659440"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2041654000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041659440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2041659440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041654000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>apr!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>apr!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45374</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>apr!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2106909056"/>
+        <c:axId val="2106913408"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2106909056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106913408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2106913408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2106909056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2882,6 +3913,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6033,6 +7138,1077 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6243,6 +8419,80 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>338137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7224,21 +9474,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B16:B1048576">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7250,10 +9500,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7283,7 +9533,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7297,7 +9547,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7445,7 +9695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>36938</v>
       </c>
@@ -7456,7 +9706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>36939</v>
       </c>
@@ -7467,7 +9717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>36940</v>
       </c>
@@ -7478,84 +9728,125 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>36941</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>36942</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>36943</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>36944</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>36945</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>36946</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>36947</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>36948</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>36949</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>36950</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45351</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7565,21 +9856,682 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45353</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45354</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45355</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45357</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45360</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45361</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45362</v>
+      </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45363</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45364</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45365</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45366</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45367</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45368</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45369</v>
+      </c>
+      <c r="B19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45370</v>
+      </c>
+      <c r="B20">
+        <v>6.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45371</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B22">
+        <v>4.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45373</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45374</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45375</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45376</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45377</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45378</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45379</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45380</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45381</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45353</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45354</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45355</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45357</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45359</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45360</v>
+      </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45361</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45381</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="daily study status" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="feb-1" sheetId="9" r:id="rId5"/>
     <sheet name="march" sheetId="10" r:id="rId6"/>
     <sheet name="apr" sheetId="11" r:id="rId7"/>
+    <sheet name="may" sheetId="12" r:id="rId8"/>
+    <sheet name="June" sheetId="13" r:id="rId9"/>
+    <sheet name="July" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
   <si>
     <t>sat</t>
   </si>
@@ -352,6 +355,227 @@
   <si>
     <t>2.5 twitter pollution analysis, 1-news,shopping,1- tcs work</t>
   </si>
+  <si>
+    <t>IN CHIRALA</t>
+  </si>
+  <si>
+    <t>3 HR TCS WORK</t>
+  </si>
+  <si>
+    <t>went to office, pickup,drop</t>
+  </si>
+  <si>
+    <t>bought cable, fibroids analysis,news</t>
+  </si>
+  <si>
+    <t>apply visa</t>
+  </si>
+  <si>
+    <t>aadhar update, visa apply, tcs wf roles lakshman work  work timewaste</t>
+  </si>
+  <si>
+    <t>MRI scan +3hrs movies</t>
+  </si>
+  <si>
+    <t>entertainment videos, house works, mri reports collection, chaitu relatives meet</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>3.5 hours lic policy analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sleep,calls with friends,santu pickup,bank update,1 hr tcs work </t>
+  </si>
+  <si>
+    <t>4.5 call with team mates reg lead pos</t>
+  </si>
+  <si>
+    <t>fibroids ananlysis web docs reading</t>
+  </si>
+  <si>
+    <t>7 hours fibroids analysis ncbi website, calls with mama, atha, policy  bazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 hrs css, 1.5 open api</t>
+  </si>
+  <si>
+    <t>sleep pickup drop</t>
+  </si>
+  <si>
+    <t>went to chirala,gudluru, kandukur for elections,hospitals</t>
+  </si>
+  <si>
+    <t>not recorded</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>javascript syllabus hours completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target </t>
+  </si>
+  <si>
+    <t>studied js 2 hours</t>
+  </si>
+  <si>
+    <t>1 tax cal, 30m millets, js- video -9,10,11</t>
+  </si>
+  <si>
+    <t>Not record and studied</t>
+  </si>
+  <si>
+    <t>Spring batch is target</t>
+  </si>
+  <si>
+    <t>2 hrs preg study,
+2 hrs house helps
+1.5 hr temple</t>
+  </si>
+  <si>
+    <t>1.5 hours preg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hrs preg study,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hrs preg study,
+2 hrs spr batch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not recorded </t>
+  </si>
+  <si>
+    <t>6 hours usa analysis whether to go or not
+3.5 hours study
+1 hour movie</t>
+  </si>
+  <si>
+    <t>not recorded usa analysis</t>
+  </si>
+  <si>
+    <t>hospital apollo</t>
+  </si>
+  <si>
+    <t>kitchen work - cleaning</t>
+  </si>
+  <si>
+    <t>athayya stays</t>
+  </si>
+  <si>
+    <t>charan</t>
+  </si>
+  <si>
+    <t>2hrs spr batch
+4 hrs ofc work
+2 hrs kitchen work</t>
+  </si>
+  <si>
+    <t>daily 9-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5yoga
+4.5 bike svc+scooty decide
+1 hr sleep
+</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>5 hours wasted for 2 movies -
+3 hrs plants
+1.5 hour snacks prep</t>
+  </si>
+  <si>
+    <t>total waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spent on plants </t>
+  </si>
+  <si>
+    <t>1- hr financial sheet fillup
+3 hrs- millets shopping,lunch+sleep
+4.5 hour mandatory training</t>
+  </si>
+  <si>
+    <t>went for campus interviews</t>
+  </si>
+  <si>
+    <t>wasted hours</t>
+  </si>
+  <si>
+    <t>Daily targeted hours due ot on bench</t>
+  </si>
+  <si>
+    <t>5 hours hospital
+2 hours hosp docs oraganize
+2 hrs mom mobile finalise
+1 hr online amazon shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hr drop
+1 hr charan calls, 1 hr mf analysis,1 hr tcs work
+</t>
+  </si>
+  <si>
+    <t>5.5 kafka
+4 hr swaroop home search,1 hr mohan calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hrs mohan calls,2 hrs bike teaching
+1 hr yoga , 1 hr sleep,1 hr sun oil,milk
+</t>
+  </si>
+  <si>
+    <t>5.5 kafka, pcf
+6 hr waste-1 hr drop,1 youtube,3 mohan calls,1hr misc</t>
+  </si>
+  <si>
+    <t>2 hrs calls- mohan,neelima</t>
+  </si>
+  <si>
+    <t>1 hr calls,3 hrs shopping,,1hr pickup,1 hr frnd help</t>
+  </si>
+  <si>
+    <t>3 hrs calls with chaitu,mohan, 1 hr news</t>
+  </si>
+  <si>
+    <t>1.5 BUS BOOK,1 hr calls,2 hr movie</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>taking too much time for ready, kitchen help,</t>
+  </si>
+  <si>
+    <t>1 hr calls are wasted</t>
+  </si>
+  <si>
+    <t>dress selection for mohan son</t>
+  </si>
+  <si>
+    <t>went to jammalamadugu</t>
+  </si>
+  <si>
+    <t>slept+mutual funds</t>
+  </si>
+  <si>
+    <t>1.5 hour authors, 1 hr walking, 1 milk +pickup,1 hr news dinner</t>
+  </si>
+  <si>
+    <t>2 hrs khashaym+kitchen,2hr hosp search, 1hr youtube videos, 1 hr dinner
+1 hr walking,1hr drop,1hr books download,1hr groceries</t>
+  </si>
+  <si>
+    <t>full tcs work</t>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +703,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -495,6 +719,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -502,7 +729,357 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -835,11 +1412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2043199472"/>
-        <c:axId val="2043191856"/>
+        <c:axId val="-1481174240"/>
+        <c:axId val="-1481172608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043199472"/>
+        <c:axId val="-1481174240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043191856"/>
+        <c:crossAx val="-1481172608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -890,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043191856"/>
+        <c:axId val="-1481172608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043199472"/>
+        <c:crossAx val="-1481174240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -966,6 +1543,972 @@
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>June!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>June!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45458</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>June!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1376382608"/>
+        <c:axId val="-1376381520"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-1376382608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1376381520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-1376381520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1376382608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>July!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>July!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>July!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1376373360"/>
+        <c:axId val="-1376372272"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-1376373360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1376372272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-1376372272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1376373360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1113,11 +2656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2043204912"/>
-        <c:axId val="2043193488"/>
+        <c:axId val="-1550674688"/>
+        <c:axId val="-1443145328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043204912"/>
+        <c:axId val="-1550674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +2702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043193488"/>
+        <c:crossAx val="-1443145328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1167,7 +2710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043193488"/>
+        <c:axId val="-1443145328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +2761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043204912"/>
+        <c:crossAx val="-1550674688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1450,11 +2993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2043205456"/>
-        <c:axId val="2043202736"/>
+        <c:axId val="-1443146416"/>
+        <c:axId val="-1443151856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043205456"/>
+        <c:axId val="-1443146416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +3058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043202736"/>
+        <c:crossAx val="-1443151856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +3066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043202736"/>
+        <c:axId val="-1443151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,7 +3127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043205456"/>
+        <c:crossAx val="-1443146416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1840,11 +3383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043203824"/>
-        <c:axId val="2043204368"/>
+        <c:axId val="-1443152944"/>
+        <c:axId val="-1443141520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043203824"/>
+        <c:axId val="-1443152944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +3429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043204368"/>
+        <c:crossAx val="-1443141520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +3437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043204368"/>
+        <c:axId val="-1443141520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +3473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2043203824"/>
+        <c:crossAx val="-1443152944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,11 +3731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043195120"/>
-        <c:axId val="2043206544"/>
+        <c:axId val="-1443155664"/>
+        <c:axId val="-1443151312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2043195120"/>
+        <c:axId val="-1443155664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,14 +3778,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043206544"/>
+        <c:crossAx val="-1443151312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2043206544"/>
+        <c:axId val="-1443151312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +3836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043195120"/>
+        <c:crossAx val="-1443155664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2628,11 +4171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043195664"/>
-        <c:axId val="2043196208"/>
+        <c:axId val="-1443155120"/>
+        <c:axId val="-1443156208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2043195664"/>
+        <c:axId val="-1443155120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,14 +4218,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043196208"/>
+        <c:crossAx val="-1443156208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2043196208"/>
+        <c:axId val="-1443156208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +4276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043195664"/>
+        <c:crossAx val="-1443155120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3074,11 +4617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2041654000"/>
-        <c:axId val="2041659440"/>
+        <c:axId val="-1443153488"/>
+        <c:axId val="-1443149136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2041654000"/>
+        <c:axId val="-1443153488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,14 +4664,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041659440"/>
+        <c:crossAx val="-1443149136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2041659440"/>
+        <c:axId val="-1443149136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,7 +4722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041654000"/>
+        <c:crossAx val="-1443153488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,7 +4786,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3352,7 +4894,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3502,6 +5043,51 @@
                 <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3518,11 +5104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106909056"/>
-        <c:axId val="2106913408"/>
+        <c:axId val="-1443142608"/>
+        <c:axId val="-1443142064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2106909056"/>
+        <c:axId val="-1443142608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,14 +5151,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106913408"/>
+        <c:crossAx val="-1443142064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2106913408"/>
+        <c:axId val="-1443142064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,7 +5194,471 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106909056"/>
+        <c:crossAx val="-1443142608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>may!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>may!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45423</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45424</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45430</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45431</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45433</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45435</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45437</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45438</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45440</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>may!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1443150224"/>
+        <c:axId val="-1443149680"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-1443150224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1443149680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-1443149680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1443150224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3681,6 +5731,80 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3987,6 +6111,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4499,6 +6660,1142 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7646,6 +10943,574 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8493,6 +12358,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>290512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>290512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>290512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9026,6 +13002,398 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="G2" s="7"/>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45475</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45478</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45479</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45480</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45481</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45484</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45485</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45486</v>
+      </c>
+      <c r="B14">
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45487</v>
+      </c>
+      <c r="B15">
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45488</v>
+      </c>
+      <c r="B16">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45489</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45490</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45491</v>
+      </c>
+      <c r="B19">
+        <v>6.5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45492</v>
+      </c>
+      <c r="B20">
+        <v>5.5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45493</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45494</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="G22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45495</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45496</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45497</v>
+      </c>
+      <c r="B25">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45498</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45499</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45500</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45501</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="cellIs" priority="16" operator="lessThanOrEqual">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="greaterThanOrEqual">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
@@ -9474,21 +13842,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B16:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9856,21 +14224,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10246,21 +14614,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10274,8 +14642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,7 +14776,12 @@
       <c r="A11" s="4">
         <v>45361</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -10419,119 +14792,1053 @@
       <c r="A13" s="4">
         <v>45363</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45364</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45365</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45366</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45367</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45368</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45369</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45370</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45371</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45372</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45373</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45374</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45375</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45376</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45377</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45378</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45379</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45380</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45381</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:B19 B21:B29">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="8">
+        <f>SUM(D2:D31)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45413</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45414</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45415</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45416</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45417</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45418</v>
+      </c>
+      <c r="B7">
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45419</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45420</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45421</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45422</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45423</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45424</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45425</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45426</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45427</v>
+      </c>
+      <c r="B16">
+        <v>3.5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45428</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45429</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45430</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45431</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45432</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45433</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45434</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45435</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45436</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45437</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45438</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45439</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45440</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45443</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:F1">
+    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B19 B21:B29">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45444</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45445</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45450</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45451</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45452</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45453</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45457</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45458</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45459</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45463</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45464</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45465</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45466</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45467</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45470</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:F1">
+    <cfRule type="cellIs" priority="14" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B29 B2:B16 B19">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="daily study status" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="may" sheetId="12" r:id="rId8"/>
     <sheet name="June" sheetId="13" r:id="rId9"/>
     <sheet name="July" sheetId="15" r:id="rId10"/>
+    <sheet name="Aug 2024" sheetId="16" r:id="rId11"/>
+    <sheet name="sept" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
   <si>
     <t>sat</t>
   </si>
@@ -576,12 +578,275 @@
   <si>
     <t>full tcs work</t>
   </si>
+  <si>
+    <t>1.5 hr calls</t>
+  </si>
+  <si>
+    <t>3 hrs extra sleep,1 hr movie,2.5 youtube videos</t>
+  </si>
+  <si>
+    <t>1.5 ayurveda analysis,1 hr tiffin, 2 hrs cleaning,3hrs movie</t>
+  </si>
+  <si>
+    <t>5 hrs induction, 1 hr pickup,1 hr walking, 1 hr dinner</t>
+  </si>
+  <si>
+    <t>2 hrs jagan calls,2 hrs shopping,1hr slept</t>
+  </si>
+  <si>
+    <t>sollu calls</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>2 Aug-  5-Aug kafka avro course
+5- Aug - 31 Aug kafka book + UI 1 hour daily</t>
+  </si>
+  <si>
+    <t>Target Udemy Kaka course + HTML complete</t>
+  </si>
+  <si>
+    <t>wells work</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>1 hr khashayams, 2 hr s shopping, 2 hr sathish calls</t>
+  </si>
+  <si>
+    <t>went to hos, gold shop</t>
+  </si>
+  <si>
+    <t>2 hr plants,2 hrs calls, 2 hr shopping, 1 movie</t>
+  </si>
+  <si>
+    <t>1 hr motions,0.5 tcs work,1.5 pooja,washing clo</t>
+  </si>
+  <si>
+    <t>full cold fever</t>
+  </si>
+  <si>
+    <t>2.5 spr, 2 kafka</t>
+  </si>
+  <si>
+    <t>2 hr kafka, 2hr UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hrs khashayams+tiffin
+3 hours movie, 5hrs desk shopping
+</t>
+  </si>
+  <si>
+    <t>mistakes</t>
+  </si>
+  <si>
+    <t>wasted in office</t>
+  </si>
+  <si>
+    <t>spent over time in office</t>
+  </si>
+  <si>
+    <t>missed sun -woke up late
+night movies, slept at late night</t>
+  </si>
+  <si>
+    <t>no wells work,wasted by time in ofc</t>
+  </si>
+  <si>
+    <t>spent over morning time in office went by 9
+shouyld have went by 2, 2 hrs groceries dmart</t>
+  </si>
+  <si>
+    <t>1 hr train booking</t>
+  </si>
+  <si>
+    <t>wasted by watching 3 hrs movie-darling,4 hrs relatives</t>
+  </si>
+  <si>
+    <t>1hr extra sleep,0.5 bcb,1.5 hr youtube, 1hr shopping,1hr yoga
+Seeing Sunday as relaxation day and watching movies
+getting ready after 9</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>wasted by watching 4.5 hrs movie-double ismart
+,1 hr youtube , 2hrs han sollu calls, 1hr shopping</t>
+  </si>
+  <si>
+    <t>total hours studied</t>
+  </si>
+  <si>
+    <t>went to chirala</t>
+  </si>
+  <si>
+    <t>travelled to chirala</t>
+  </si>
+  <si>
+    <t>1 hr travel drop</t>
+  </si>
+  <si>
+    <t>didn’t noted</t>
+  </si>
+  <si>
+    <t>2 hrs UI</t>
+  </si>
+  <si>
+    <t>4hrs kitchen DWL, 1 hr movie, 1 hr sollu calls,2hrs shoppin,</t>
+  </si>
+  <si>
+    <t>2 hrs house work</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Too many movies watched</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> premalu, double ismart,darling,vindhya,baby</t>
+    </r>
+  </si>
+  <si>
+    <t>2 hrs movie,2hrs sollu calls,2hrs khashayam</t>
+  </si>
+  <si>
+    <t>css,harness</t>
+  </si>
+  <si>
+    <t>is 1 hr UI syll completed</t>
+  </si>
+  <si>
+    <t>1hr shopping,0.5 sollu calls</t>
+  </si>
+  <si>
+    <t>2 hr CSS</t>
+  </si>
+  <si>
+    <t>2hrs house work,1hr misc</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>Tips:- 
+1) I should see Sunday / Saturday as opportunity for learning
+we should wakeup early and be more strict on Sunday and utilize holidays
+2) don’t talk lontalk talk long any call from 9-12
+3) shutdown after 930 towake up by 530 see orange sun
+4) prepare ganji &amp; eat dinner during meetings scrum calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t shutdown after 930, khshaya sun missing
+</t>
+  </si>
+  <si>
+    <t>css,took boring break of 40 mins</t>
+  </si>
+  <si>
+    <t>2 CSS</t>
+  </si>
+  <si>
+    <t>2 hrs millets cleaning,1 hr raid pickup</t>
+  </si>
+  <si>
+    <t>1 hr millet clea,1hr extra sleep BCB,1hr photos filter</t>
+  </si>
+  <si>
+    <t>1 hr sleep, 1 hr mill cleaning</t>
+  </si>
+  <si>
+    <t>Tips:- 
+1) I should see  Saturday /Sunday as opportunity for learning
+we should wakeup early and be more strict on Sunday and utilize holidays
+2) don’t talk lontalk talk long any call from 9-12
+3) shutdown after 930 towake up by 530 see orange sun
+4) prepare ganji &amp; eat dinner during meetings scrum calls
+5) dont watch movie every sunday, max 1 movie per month not 1 per weekend</t>
+  </si>
+  <si>
+    <t>Target Udemy Jaav script 30 hours</t>
+  </si>
+  <si>
+    <t>sailu function in chirala</t>
+  </si>
+  <si>
+    <t>Went to chirala for sailu func,ayur</t>
+  </si>
+  <si>
+    <t>1 Sep-  5-Sept CSS
+5- 31 sept Java script</t>
+  </si>
+  <si>
+    <t>misc/mobile</t>
+  </si>
+  <si>
+    <t>1 hr wasted, slow tiffin, mobile videos</t>
+  </si>
+  <si>
+    <t>1 hr aadhar,1 extra sleep,1 team lunch, 30 mins sleep</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>1 hr extra sleep,extra work</t>
+  </si>
+  <si>
+    <t>2 hrs extra sleep, 1 hr sollu calls</t>
+  </si>
+  <si>
+    <t>CSS, PCF</t>
+  </si>
+  <si>
+    <t>1 hr extra sleep, 1.5 yoga, 1 hr sollu calls,2 hrs chit chat with bala TCS</t>
+  </si>
+  <si>
+    <t>shame of reading 2/ 8 hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +898,21 @@
       <color theme="0"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -703,7 +983,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,6 +1002,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -729,7 +1019,111 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1412,11 +1806,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1481174240"/>
-        <c:axId val="-1481172608"/>
+        <c:axId val="-2020594144"/>
+        <c:axId val="-2020601760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1481174240"/>
+        <c:axId val="-2020594144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1481172608"/>
+        <c:crossAx val="-2020601760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1481172608"/>
+        <c:axId val="-2020601760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1481174240"/>
+        <c:crossAx val="-2020594144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,11 +2288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1376382608"/>
-        <c:axId val="-1376381520"/>
+        <c:axId val="-1957330288"/>
+        <c:axId val="-1957329200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1376382608"/>
+        <c:axId val="-1957330288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,14 +2335,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1376381520"/>
+        <c:crossAx val="-1957329200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1376381520"/>
+        <c:axId val="-1957329200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1376382608"/>
+        <c:crossAx val="-1957330288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2064,7 +2458,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2173,7 +2566,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2362,6 +2754,21 @@
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2378,11 +2785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1376373360"/>
-        <c:axId val="-1376372272"/>
+        <c:axId val="-1957325936"/>
+        <c:axId val="-1957328656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1376373360"/>
+        <c:axId val="-1957325936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,14 +2832,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1376372272"/>
+        <c:crossAx val="-1957328656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1376372272"/>
+        <c:axId val="-1957328656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1376373360"/>
+        <c:crossAx val="-1957325936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,6 +2916,1843 @@
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
           <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aug 2024'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Aug 2024'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aug 2024'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1957324848"/>
+        <c:axId val="-1957327024"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-1957324848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1957327024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-1957327024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1957324848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Wastage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> details</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aug 2024'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sollu calls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aug 2024'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aug 2024'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wells work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aug 2024'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aug 2024'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aug 2024'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Aug 2024'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>misc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Aug 2024'!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1957324304"/>
+        <c:axId val="-1957323760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1957324304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1957323760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1957323760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1957324304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8390558323066776E-2"/>
+          <c:y val="8.6234923700418867E-2"/>
+          <c:w val="0.91138862744197791"/>
+          <c:h val="3.7847191746990305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sept!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sept!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sept!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1980472144"/>
+        <c:axId val="-1980480304"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-1980472144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1980480304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-1980480304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1980472144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Wastage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> details</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sept!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sollu calls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>sept!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sept!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wells work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>sept!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sept!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>sept!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sept!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>misc/mobile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>sept!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1980477040"/>
+        <c:axId val="-1980474320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1980477040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1980474320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1980474320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1980477040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8390558323066776E-2"/>
+          <c:y val="8.6234923700418867E-2"/>
+          <c:w val="0.91138862744197791"/>
+          <c:h val="3.7847191746990305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2656,11 +4900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1550674688"/>
-        <c:axId val="-1443145328"/>
+        <c:axId val="-2020589248"/>
+        <c:axId val="-2020590880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1550674688"/>
+        <c:axId val="-2020589248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +4946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443145328"/>
+        <c:crossAx val="-2020590880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2710,7 +4954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1443145328"/>
+        <c:axId val="-2020590880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +5005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1550674688"/>
+        <c:crossAx val="-2020589248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2993,11 +5237,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1443146416"/>
-        <c:axId val="-1443151856"/>
+        <c:axId val="-2020594688"/>
+        <c:axId val="-2020593600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1443146416"/>
+        <c:axId val="-2020594688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443151856"/>
+        <c:crossAx val="-2020593600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3066,7 +5310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1443151856"/>
+        <c:axId val="-2020593600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +5371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443146416"/>
+        <c:crossAx val="-2020594688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,11 +5627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1443152944"/>
-        <c:axId val="-1443141520"/>
+        <c:axId val="-2020599584"/>
+        <c:axId val="-2020599040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1443152944"/>
+        <c:axId val="-2020599584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +5673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443141520"/>
+        <c:crossAx val="-2020599040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3437,7 +5681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1443141520"/>
+        <c:axId val="-2020599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +5717,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1443152944"/>
+        <c:crossAx val="-2020599584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3731,11 +5975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1443155664"/>
-        <c:axId val="-1443151312"/>
+        <c:axId val="-2020588160"/>
+        <c:axId val="-2020587616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1443155664"/>
+        <c:axId val="-2020588160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,14 +6022,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443151312"/>
+        <c:crossAx val="-2020587616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1443151312"/>
+        <c:axId val="-2020587616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +6080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443155664"/>
+        <c:crossAx val="-2020588160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4171,11 +6415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1443155120"/>
-        <c:axId val="-1443156208"/>
+        <c:axId val="-2020597952"/>
+        <c:axId val="-2020597408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1443155120"/>
+        <c:axId val="-2020597952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,14 +6462,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443156208"/>
+        <c:crossAx val="-2020597408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1443156208"/>
+        <c:axId val="-2020597408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +6520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443155120"/>
+        <c:crossAx val="-2020597952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4617,11 +6861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1443153488"/>
-        <c:axId val="-1443149136"/>
+        <c:axId val="-1957315600"/>
+        <c:axId val="-1957330832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1443153488"/>
+        <c:axId val="-1957315600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,14 +6908,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443149136"/>
+        <c:crossAx val="-1957330832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1443149136"/>
+        <c:axId val="-1957330832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +6966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443153488"/>
+        <c:crossAx val="-1957315600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,11 +7348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1443142608"/>
-        <c:axId val="-1443142064"/>
+        <c:axId val="-1957317776"/>
+        <c:axId val="-1957320496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1443142608"/>
+        <c:axId val="-1957317776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5151,14 +7395,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443142064"/>
+        <c:crossAx val="-1957320496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1443142064"/>
+        <c:axId val="-1957320496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,7 +7438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1443142608"/>
+        <c:crossAx val="-1957317776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5568,11 +7812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1443150224"/>
-        <c:axId val="-1443149680"/>
+        <c:axId val="-1957316144"/>
+        <c:axId val="-1957316688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1443150224"/>
+        <c:axId val="-1957316144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,14 +7859,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443149680"/>
+        <c:crossAx val="-1957316688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1443149680"/>
+        <c:axId val="-1957316688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5658,7 +7902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1443150224"/>
+        <c:crossAx val="-1957316144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5805,6 +8049,160 @@
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7800,6 +10198,2012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12124,6 +16528,142 @@
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4086225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>852487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3857624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4038600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1071562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>242887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3857624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13006,8 +17546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13328,32 +17868,67 @@
       <c r="A27" s="4">
         <v>45499</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="B27">
+        <v>5.5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45500</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45501</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45502</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45503</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4">
+        <v>45504</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
@@ -13362,30 +17937,987 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThanOrEqual">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="70" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2">
+        <f>SUM(B2:B32)</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45506</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45507</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45508</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45509</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45510</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45511</v>
+      </c>
+      <c r="B8">
+        <v>4.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45512</v>
+      </c>
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45513</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45514</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45515</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45516</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="I13" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45517</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45518</v>
+      </c>
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45519</v>
+      </c>
+      <c r="B16">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45520</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45521</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45522</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>5.5</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45523</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45524</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45525</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45526</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45527</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45528</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45529</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45530</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45531</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45532</v>
+      </c>
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45534</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45535</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C33:D33 D1:H1">
+    <cfRule type="cellIs" priority="23" operator="lessThanOrEqual">
+      <formula>$D$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B33:B1048576">
+    <cfRule type="cellIs" dxfId="9" priority="49" operator="greaterThanOrEqual">
+      <formula>$D$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="cellIs" dxfId="8" priority="52" operator="greaterThan">
+      <formula>$D$33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="greaterThan">
+      <formula>$D$33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="54" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="55" operator="lessThan">
+      <formula>$D$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="70" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="86.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2">
+        <f>SUM(B2:B32)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45506</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45507</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45508</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45509</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45510</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45511</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45512</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45514</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45515</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45516</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45517</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45518</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45519</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45520</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45521</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45522</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45523</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45528</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45529</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45532</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C33:D33 D1:H1">
+    <cfRule type="cellIs" priority="1" operator="lessThanOrEqual">
+      <formula>$D$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B33:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
+      <formula>$D$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>$D$33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$D$33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>$D$33</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13842,21 +19374,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B16:B1048576">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14224,21 +19756,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14252,7 +19784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -14614,21 +20146,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14642,7 +20174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -14971,35 +20503,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B19 B21:B29">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15013,7 +20545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -15369,35 +20901,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B19 B21:B29">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15411,7 +20943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -15796,49 +21328,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B29 B2:B16 B19">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/my study status.xlsx
+++ b/my study status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="daily study status" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="July" sheetId="15" r:id="rId10"/>
     <sheet name="Aug 2024" sheetId="16" r:id="rId11"/>
     <sheet name="sept" sheetId="17" r:id="rId12"/>
+    <sheet name="oct" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="280">
   <si>
     <t>sat</t>
   </si>
@@ -841,12 +842,209 @@
   <si>
     <t>shame of reading 2/ 8 hours</t>
   </si>
+  <si>
+    <t>2.5 css 1.5 pcf</t>
+  </si>
+  <si>
+    <t>45 mins , 45 mins cleaning</t>
+  </si>
+  <si>
+    <t>1.5 house work- kit repair</t>
+  </si>
+  <si>
+    <t>css practice</t>
+  </si>
+  <si>
+    <t>went to gold shop opened scheme, went to hosp apollo</t>
+  </si>
+  <si>
+    <t>movie-GOAT , house kitchen help biyani</t>
+  </si>
+  <si>
+    <t>sowmya hostel search</t>
+  </si>
+  <si>
+    <t>extra sleep, 1 hr sollu calls</t>
+  </si>
+  <si>
+    <t>30 calls, 30 house work,1 hr accen interview</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>kent water settings</t>
+  </si>
+  <si>
+    <t>TCS trainings</t>
+  </si>
+  <si>
+    <t>1.5 shopping antivirus</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>0.5 tcs work, 1hr sollu calls</t>
+  </si>
+  <si>
+    <t>in office</t>
+  </si>
+  <si>
+    <t>2hrs BCB, 1 hr extra sleep, 2h shopping</t>
+  </si>
+  <si>
+    <t>3hr kub</t>
+  </si>
+  <si>
+    <t>4hrs extra sleep, 1 hr yoga,2 h house work, 2 sollu calls</t>
+  </si>
+  <si>
+    <t>1 hr house work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movies-aay, chaitu house </t>
+  </si>
+  <si>
+    <t>3.5 hrs mandatory trainings</t>
+  </si>
+  <si>
+    <t>1hr yoga,2hr movies,1hr hair cut,3.5 hros shopping, dmart</t>
+  </si>
+  <si>
+    <t>kent repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sollu calls from 12-1 </t>
+  </si>
+  <si>
+    <t>kitchen/house work</t>
+  </si>
+  <si>
+    <t>3hrs house work- water setup</t>
+  </si>
+  <si>
+    <t>0.5 santu drop, 1 hr extra sleep
+1hr kitchen</t>
+  </si>
+  <si>
+    <t>health/
+yoga</t>
+  </si>
+  <si>
+    <t>Target Udemy Java script 30 hours</t>
+  </si>
+  <si>
+    <t>2.5 yoga/walking,1.5h hospital, 4.5 kitchen, 5hrs shopping</t>
+  </si>
+  <si>
+    <t>3hrs tcs work</t>
+  </si>
+  <si>
+    <t>2hrs tcs mandatory trainings</t>
+  </si>
+  <si>
+    <t>2 hrs extra sleep due to BCB,0.5 house work</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>went to chirala for dasara</t>
+  </si>
+  <si>
+    <t>1hr shoping- kunda, 1hr charan soll calls,1.5 job search</t>
+  </si>
+  <si>
+    <t>js practice</t>
+  </si>
+  <si>
+    <t>1 hr soll calls charan exam,1hr house cleaning</t>
+  </si>
+  <si>
+    <t>2hrs wasted, 1hr MF call,</t>
+  </si>
+  <si>
+    <t>movie-visvam</t>
+  </si>
+  <si>
+    <t>1hr house work, 1 hr ready, 0.5 sollu calls</t>
+  </si>
+  <si>
+    <t>1.5hr shopping,1 kitchen, 1 hr ready, 4 hrs MF</t>
+  </si>
+  <si>
+    <t>went to kavya house</t>
+  </si>
+  <si>
+    <t>went for shopping</t>
+  </si>
+  <si>
+    <t>misc/
+shopping</t>
+  </si>
+  <si>
+    <t>wasted/mobile/TV/sollu calls</t>
+  </si>
+  <si>
+    <t>1hr MF,1 hr tcs work,1hr utube</t>
+  </si>
+  <si>
+    <t>consumed hours</t>
+  </si>
+  <si>
+    <t>completely wasted hours</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tips:- 
+1) I should see  Saturday /Sunday as opportunity for learning
+we should wakeup early and be more strict on Sunday and utilize holidays
+2) don’t talk lontalk talk long any call from 9-12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And dont touch cell phone from 9-12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3) shutdown after 930 towake up by 530 see orange sun
+4) prepare ganji &amp; eat dinner during meetings scrum calls
+5) dont watch movie every sunday, max 1 movie per month not 1 per weekend</t>
+    </r>
+  </si>
+  <si>
+    <t>reason for not studying</t>
+  </si>
+  <si>
+    <t>wastage sum</t>
+  </si>
+  <si>
+    <t>2hrs- kitchen,water,0.5 tcs work,1hr MF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,8 +1112,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,8 +1152,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -976,14 +1196,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1006,20 +1236,91 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1806,11 +2107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2020594144"/>
-        <c:axId val="-2020601760"/>
+        <c:axId val="-806248832"/>
+        <c:axId val="-806254272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2020594144"/>
+        <c:axId val="-806248832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020601760"/>
+        <c:crossAx val="-806254272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1861,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020601760"/>
+        <c:axId val="-806254272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +2213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020594144"/>
+        <c:crossAx val="-806248832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2288,11 +2589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1957330288"/>
-        <c:axId val="-1957329200"/>
+        <c:axId val="-633351488"/>
+        <c:axId val="-633338976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1957330288"/>
+        <c:axId val="-633351488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,14 +2636,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957329200"/>
+        <c:crossAx val="-633338976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1957329200"/>
+        <c:axId val="-633338976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2679,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957330288"/>
+        <c:crossAx val="-633351488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2785,11 +3086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1957325936"/>
-        <c:axId val="-1957328656"/>
+        <c:axId val="-633352032"/>
+        <c:axId val="-633336800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1957325936"/>
+        <c:axId val="-633352032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,14 +3133,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957328656"/>
+        <c:crossAx val="-633336800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1957328656"/>
+        <c:axId val="-633336800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +3176,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957325936"/>
+        <c:crossAx val="-633352032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3238,11 +3539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1957324848"/>
-        <c:axId val="-1957327024"/>
+        <c:axId val="-633349856"/>
+        <c:axId val="-633350400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1957324848"/>
+        <c:axId val="-633349856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,14 +3586,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957327024"/>
+        <c:crossAx val="-633350400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1957327024"/>
+        <c:axId val="-633350400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,7 +3644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957324848"/>
+        <c:crossAx val="-633349856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3695,11 +3996,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1957324304"/>
-        <c:axId val="-1957323760"/>
+        <c:axId val="-633348768"/>
+        <c:axId val="-633347680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1957324304"/>
+        <c:axId val="-633348768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +4043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957323760"/>
+        <c:crossAx val="-633347680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3750,7 +4051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1957323760"/>
+        <c:axId val="-633347680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +4116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957324304"/>
+        <c:crossAx val="-633348768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3943,7 +4244,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4146,6 +4446,72 @@
                 <c:pt idx="7">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4161,11 +4527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1980472144"/>
-        <c:axId val="-1980480304"/>
+        <c:axId val="-633340064"/>
+        <c:axId val="-633347136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1980472144"/>
+        <c:axId val="-633340064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,14 +4574,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1980480304"/>
+        <c:crossAx val="-633347136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1980480304"/>
+        <c:axId val="-633347136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1980472144"/>
+        <c:crossAx val="-633340064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4359,7 +4725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4428,6 +4793,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4544,11 +4918,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1980477040"/>
-        <c:axId val="-1980474320"/>
+        <c:axId val="-633346592"/>
+        <c:axId val="-633341696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1980477040"/>
+        <c:axId val="-633346592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1980474320"/>
+        <c:crossAx val="-633341696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4599,7 +4973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1980474320"/>
+        <c:axId val="-633341696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +5038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1980477040"/>
+        <c:crossAx val="-633346592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4724,6 +5098,1026 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>oct!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hours studied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>oct!$A$3:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45578</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45584</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45585</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>oct!$B$3:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-633345504"/>
+        <c:axId val="-633344960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-633345504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-633344960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-633344960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-633345504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Wastage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> details</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>oct!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wasted/mobile/TV/sollu calls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>oct!$D$3:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>oct!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kitchen/house work</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>oct!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>oct!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>health/
+yoga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>oct!$F$3:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>oct!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>misc/
+shopping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>oct!$G$3:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-633340608"/>
+        <c:axId val="-608156528"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-633340608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-608156528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-608156528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-633340608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8390558323066776E-2"/>
+          <c:y val="8.6234923700418867E-2"/>
+          <c:w val="0.45080962543233499"/>
+          <c:h val="5.8798127889537366E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4900,11 +6294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2020589248"/>
-        <c:axId val="-2020590880"/>
+        <c:axId val="-806249376"/>
+        <c:axId val="-806245568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2020589248"/>
+        <c:axId val="-806249376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,7 +6340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020590880"/>
+        <c:crossAx val="-806245568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4954,7 +6348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020590880"/>
+        <c:axId val="-806245568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,7 +6399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020589248"/>
+        <c:crossAx val="-806249376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5237,11 +6631,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2020594688"/>
-        <c:axId val="-2020593600"/>
+        <c:axId val="-806250464"/>
+        <c:axId val="-806249920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2020594688"/>
+        <c:axId val="-806250464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,7 +6696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020593600"/>
+        <c:crossAx val="-806249920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5310,7 +6704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020593600"/>
+        <c:axId val="-806249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5371,7 +6765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020594688"/>
+        <c:crossAx val="-806250464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5627,11 +7021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2020599584"/>
-        <c:axId val="-2020599040"/>
+        <c:axId val="-806258624"/>
+        <c:axId val="-806254816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2020599584"/>
+        <c:axId val="-806258624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,7 +7067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020599040"/>
+        <c:crossAx val="-806254816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5681,7 +7075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020599040"/>
+        <c:axId val="-806254816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5717,7 +7111,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2020599584"/>
+        <c:crossAx val="-806258624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5975,11 +7369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2020588160"/>
-        <c:axId val="-2020587616"/>
+        <c:axId val="-806243936"/>
+        <c:axId val="-806257536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2020588160"/>
+        <c:axId val="-806243936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6022,14 +7416,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020587616"/>
+        <c:crossAx val="-806257536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2020587616"/>
+        <c:axId val="-806257536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,7 +7474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020588160"/>
+        <c:crossAx val="-806243936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6415,11 +7809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2020597952"/>
-        <c:axId val="-2020597408"/>
+        <c:axId val="-806252096"/>
+        <c:axId val="-806251552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2020597952"/>
+        <c:axId val="-806252096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,14 +7856,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020597408"/>
+        <c:crossAx val="-806251552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2020597408"/>
+        <c:axId val="-806251552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6520,7 +7914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020597952"/>
+        <c:crossAx val="-806252096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6861,11 +8255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1957315600"/>
-        <c:axId val="-1957330832"/>
+        <c:axId val="-737044752"/>
+        <c:axId val="-737048560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1957315600"/>
+        <c:axId val="-737044752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6908,14 +8302,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957330832"/>
+        <c:crossAx val="-737048560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1957330832"/>
+        <c:axId val="-737048560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6966,7 +8360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957315600"/>
+        <c:crossAx val="-737044752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7348,11 +8742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1957317776"/>
-        <c:axId val="-1957320496"/>
+        <c:axId val="-737047472"/>
+        <c:axId val="-737046928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1957317776"/>
+        <c:axId val="-737047472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7395,14 +8789,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957320496"/>
+        <c:crossAx val="-737046928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1957320496"/>
+        <c:axId val="-737046928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7438,7 +8832,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957317776"/>
+        <c:crossAx val="-737047472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7812,11 +9206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1957316144"/>
-        <c:axId val="-1957316688"/>
+        <c:axId val="-737045296"/>
+        <c:axId val="-737050192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1957316144"/>
+        <c:axId val="-737045296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7859,14 +9253,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957316688"/>
+        <c:crossAx val="-737050192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1957316688"/>
+        <c:axId val="-737050192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7902,7 +9296,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957316144"/>
+        <c:crossAx val="-737045296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8196,6 +9590,83 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12204,6 +13675,1009 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -16664,6 +19138,75 @@
       <xdr:colOff>457199</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4038600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1071562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>242887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3857624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17937,29 +20480,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="greaterThanOrEqual">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThanOrEqual">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18019,15 +20562,15 @@
       <c r="I1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="2" t="s">
         <v>189</v>
       </c>
@@ -18055,13 +20598,13 @@
       <c r="I2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
       <c r="R2">
         <f>SUM(B2:B32)</f>
         <v>66.5</v>
@@ -18524,21 +21067,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B33:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="49" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="49" operator="greaterThanOrEqual">
       <formula>$D$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="8" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="52" operator="greaterThan">
       <formula>$D$33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="53" operator="greaterThan">
       <formula>$D$33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="54" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="lessThan">
       <formula>$D$33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18552,8 +21095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:I9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18565,12 +21108,12 @@
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="70" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -18589,24 +21132,24 @@
       <c r="F1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>200</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="2" t="s">
         <v>189</v>
       </c>
@@ -18624,16 +21167,16 @@
       <c r="I2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
       <c r="R2">
         <f>SUM(B2:B32)</f>
-        <v>13.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18743,81 +21286,151 @@
       <c r="A10" s="4">
         <v>45513</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45514</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="I11" s="10"/>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45515</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45516</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45517</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45518</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45519</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45520</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45521</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45522</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45523</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -18825,71 +21438,157 @@
       <c r="A21" s="4">
         <v>45524</v>
       </c>
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45525</v>
       </c>
+      <c r="B22">
+        <v>3.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45526</v>
       </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45527</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45528</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="B25">
+        <v>1.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45529</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45530</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45531</v>
       </c>
+      <c r="B28">
+        <v>3.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45532</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45533</v>
       </c>
+      <c r="B30">
+        <v>3.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <v>2.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45534</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>45535</v>
-      </c>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -18902,22 +21601,594 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B33:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThanOrEqual">
       <formula>$D$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>$D$33</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>$D$33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>$D$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="15">
+        <f>SUM(B3:B33)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(D3:D33)</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E3:E33)</f>
+        <v>16.5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM(F3:F33)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(G3:G33)</f>
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="R2">
+        <f>SUM(E3:G23)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="86.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>45566</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="H3" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" s="13">
+        <f>SUM(D3:D33)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45567</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45568</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45569</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45570</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45571</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45572</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45573</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45574</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45575</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45576</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45577</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45578</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45579</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45580</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45581</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45582</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45583</v>
+      </c>
+      <c r="H20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45585</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22">
+        <v>1.5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45587</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45591</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:P3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C34:D34 D1:G2">
+    <cfRule type="cellIs" priority="1" operator="lessThanOrEqual">
+      <formula>$D$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2 B34:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
+      <formula>$D$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B33">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>$D$34</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>$D$33</formula>
+      <formula>$D$34</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
-      <formula>$D$33</formula>
+      <formula>$D$34</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19374,21 +22645,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B16:B1048576">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19747,6 +23018,396 @@
       </c>
       <c r="B30">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B30:B1048576">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="greaterThanOrEqual">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B29">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="lessThan">
+      <formula>7.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45353</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45354</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45355</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45357</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45360</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45361</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45362</v>
+      </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45363</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45364</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45365</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45366</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45367</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45368</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45369</v>
+      </c>
+      <c r="B19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45370</v>
+      </c>
+      <c r="B20">
+        <v>6.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45371</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B22">
+        <v>4.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45373</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45374</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45375</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45376</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45377</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45378</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45379</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45380</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45381</v>
       </c>
     </row>
   </sheetData>
@@ -19780,396 +23441,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="70" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45352</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45353</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45354</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45355</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45356</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45357</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45358</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45360</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45361</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45362</v>
-      </c>
-      <c r="B12">
-        <v>4.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45363</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45364</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45365</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45366</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45367</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45368</v>
-      </c>
-      <c r="B18">
-        <v>4.5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45369</v>
-      </c>
-      <c r="B19">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45370</v>
-      </c>
-      <c r="B20">
-        <v>6.5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45371</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>45372</v>
-      </c>
-      <c r="B22">
-        <v>4.5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>45373</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>45374</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>45375</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45376</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45377</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>45378</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>45379</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>45380</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>45381</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual">
-      <formula>$E$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThanOrEqual">
-      <formula>$E$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
-      <formula>$E$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
-      <formula>$E$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
-      <formula>7.75</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
-      <formula>$E$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
@@ -20503,35 +23774,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B19 B21:B29">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20901,35 +24172,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B19 B21:B29">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21328,49 +24599,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B30:B1048576">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThanOrEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B29 B2:B16 B19">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
       <formula>7.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
